--- a/data/income_statement/3digits/total/202_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/202_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>202-Manufacture of pesticides and other agrochemical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>202-Manufacture of pesticides and other agrochemical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>395575.0022999999</v>
+        <v>395575.0023</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>493416.8940800001</v>
@@ -965,28 +871,33 @@
         <v>834446.5782699999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1030091.57264</v>
+        <v>1034784.65354</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1140429.88527</v>
+        <v>1189878.33032</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1288487.13684</v>
+        <v>1325589.18277</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1784524.75937</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2795151.66999</v>
+        <v>2795315.59999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3774022.094560001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3781954.493569999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5313351.748</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>356783.64826</v>
@@ -998,34 +909,39 @@
         <v>619027.7689</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>675559.33469</v>
+        <v>675559.3346899999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>745490.5786600001</v>
+        <v>745490.57866</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>913702.9456900001</v>
+        <v>918133.6168899998</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1005135.80494</v>
+        <v>1051012.34663</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1149204.31249</v>
+        <v>1186299.90938</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1577452.66166</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2508270.76236</v>
+        <v>2508434.69236</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3186938.7867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3194240.87576</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4527763.68</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>35008.26054</v>
@@ -1040,16 +956,16 @@
         <v>62060.18173</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>82756.03058000001</v>
+        <v>82756.03057999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>111089.1543</v>
+        <v>111094.40372</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>124189.02037</v>
+        <v>127492.50059</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>117362.0545</v>
+        <v>117368.50354</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>183690.60254</v>
@@ -1058,13 +974,18 @@
         <v>264183.80222</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>555843.8929099999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>556048.9794500001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>740515.2709999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>3783.0935</v>
@@ -1076,16 +997,16 @@
         <v>4949.47521</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>7104.393520000001</v>
+        <v>7104.39352</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>6199.969030000001</v>
+        <v>6199.96903</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>5299.472650000001</v>
+        <v>5556.63293</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>11105.05996</v>
+        <v>11373.4831</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>21920.76985</v>
@@ -1097,13 +1018,18 @@
         <v>22697.10541</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>31239.41495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31664.63836</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>45072.797</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>31132.73051</v>
@@ -1121,13 +1047,13 @@
         <v>49522.44087</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>64831.70258999999</v>
+        <v>64908.77057</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>53285.92956</v>
+        <v>54618.25545999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>45545.47007</v>
+        <v>47129.83931</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>63027.07375</v>
@@ -1136,13 +1062,18 @@
         <v>113891.7234</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>169013.63408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>169111.47219</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>187698.09</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>7448.41439</v>
@@ -1160,28 +1091,33 @@
         <v>16319.5899</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>15472.14331</v>
+        <v>15534.6653</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>14969.22938</v>
+        <v>15961.92675</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>20975.71166</v>
+        <v>21694.6559</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>22315.55057</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>46725.66611999999</v>
+        <v>46725.66612</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>92094.38172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>92192.21983</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>97700.261</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>23434.28433</v>
@@ -1199,13 +1135,13 @@
         <v>31777.89689</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>47675.43925</v>
+        <v>47689.98523999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>36801.47167</v>
+        <v>36981.65756</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>23178.53802</v>
+        <v>24043.96302</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>39217.42311</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>70114.93028</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>82400.31</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>250.03179</v>
@@ -1229,7 +1170,7 @@
         <v>513.4974</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>879.0192699999999</v>
+        <v>879.01927</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>1275.42695</v>
@@ -1241,7 +1182,7 @@
         <v>1684.12003</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1515.22851</v>
+        <v>1674.67115</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>1391.22039</v>
@@ -1255,17 +1196,22 @@
       <c r="M12" s="48" t="n">
         <v>6804.32208</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>7597.519</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>364442.27179</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>470147.1743</v>
+        <v>470147.1743000001</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>640920.01949</v>
@@ -1274,70 +1220,80 @@
         <v>696993.95747</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>784924.1374000001</v>
+        <v>784924.1374</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>965259.87005</v>
+        <v>969875.88297</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1087143.95571</v>
+        <v>1135260.07486</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1242941.66677</v>
+        <v>1278459.34346</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1721497.68562</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2681259.94659</v>
+        <v>2681423.87659</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3605008.46048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3612843.02138</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5125653.658</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>275962.89859</v>
+        <v>275962.8985900001</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>346866.96322</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>468738.86345</v>
+        <v>468738.8634500001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>506618.80452</v>
+        <v>506618.8045200001</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>561913.5243500001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>679718.83529</v>
+        <v>683030.61177</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>741754.99474</v>
+        <v>778433.86028</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>834687.29247</v>
+        <v>859430.53357</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1157169.42446</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1683166.8026</v>
+        <v>1683293.73718</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2147915.40246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2153639.91367</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3294727.142</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>210170.41075</v>
@@ -1346,7 +1302,7 @@
         <v>270782.01492</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>360824.16693</v>
+        <v>360824.1669299999</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>391129.77745</v>
@@ -1355,37 +1311,42 @@
         <v>444453.49259</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>540775.2074500001</v>
+        <v>544086.98393</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>599427.7707699999</v>
+        <v>628445.6434899999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>687448.0022699999</v>
+        <v>697149.7174</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>955613.05913</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1394594.86208</v>
+        <v>1394661.19167</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1807094.24945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1812466.1226</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2798578.986</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>62311.50098</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>73018.96892999999</v>
+        <v>73018.96893</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>98104.31992000001</v>
+        <v>98104.31991999998</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>95682.48436</v>
@@ -1397,10 +1358,10 @@
         <v>124228.25548</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>119615.98754</v>
+        <v>127177.33999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>126051.48118</v>
+        <v>141093.00715</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>180054.26851</v>
@@ -1409,13 +1370,18 @@
         <v>235174.84279</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>297457.40477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>297810.04283</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>425421.46</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>3396.90127</v>
@@ -1436,7 +1402,7 @@
         <v>14525.75216</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>22688.58632</v>
+        <v>22785.92669</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>20018.81634</v>
@@ -1450,11 +1416,16 @@
       <c r="M17" s="48" t="n">
         <v>30298.47708</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>25947.306</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>84.08559</v>
@@ -1475,7 +1446,7 @@
         <v>189.6202</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>22.65011</v>
+        <v>24.95011</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>1168.99268</v>
@@ -1484,16 +1455,21 @@
         <v>7440.47809</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>25067.53865</v>
+        <v>25128.14364</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>13065.27116</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>44779.39</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>88479.37319999999</v>
@@ -1511,37 +1487,42 @@
         <v>223010.61305</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>285541.03476</v>
+        <v>286845.2712</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>345388.96097</v>
+        <v>356826.21458</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>408254.3743</v>
+        <v>419028.8098899999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>564328.2611600001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>998093.14399</v>
+        <v>998130.1394099998</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1457093.05802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1459203.10771</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1830926.516</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>58730.94712</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>73058.0993</v>
+        <v>73058.09930000002</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>94415.87964999999</v>
+        <v>94415.87965</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>112222.7296</v>
@@ -1550,28 +1531,33 @@
         <v>129644.24491</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>145630.63918</v>
+        <v>146097.10933</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>157945.58764</v>
+        <v>162943.66172</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>180996.0613</v>
+        <v>185769.55099</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>213879.14905</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>273909.62304</v>
+        <v>274119.14829</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>407411.14116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>408704.49719</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>550621.966</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>70.52616999999999</v>
@@ -1604,19 +1590,24 @@
         <v>9220.892540000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>15823.25395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15854.6393</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>21098.51</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>28623.51114</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>35893.71049999999</v>
+        <v>35893.7105</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>47450.62878</v>
@@ -1628,13 +1619,13 @@
         <v>66880.02937</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>73249.95108</v>
+        <v>73494.25462000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>83686.04332000001</v>
+        <v>86408.51505</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>94858.34809</v>
+        <v>98835.79171</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>114659.62677</v>
@@ -1643,13 +1634,18 @@
         <v>146078.56411</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>230482.56224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>230565.50813</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>305307.127</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>30036.90981</v>
@@ -1658,7 +1654,7 @@
         <v>36069.08448</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>46673.03190000001</v>
+        <v>46673.0319</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>51782.65758</v>
@@ -1667,28 +1663,33 @@
         <v>61696.04945999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>71297.77016999999</v>
+        <v>71519.93678</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>72712.59429000001</v>
+        <v>74988.19663999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>83463.56123000001</v>
+        <v>84259.6073</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>94989.33623</v>
+        <v>94989.33622999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>118610.16639</v>
+        <v>118819.69164</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>161105.32497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>162284.34976</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>224216.329</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>29748.42608</v>
@@ -1700,34 +1701,39 @@
         <v>77765.27638999998</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>78152.42335</v>
+        <v>78152.42335000001</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>93366.36814000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>139910.39558</v>
+        <v>140748.16187</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>187443.37333</v>
+        <v>193882.55286</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>227258.313</v>
+        <v>233259.2589</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>350449.11211</v>
+        <v>350449.1121099999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>724183.52095</v>
+        <v>724010.99112</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1049681.91686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1050498.61052</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1280304.55</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>16656.31389</v>
@@ -1745,13 +1751,13 @@
         <v>32163.95734</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>49020.04673</v>
+        <v>49093.87387999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>96923.31574999999</v>
+        <v>97392.94385</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>89296.05990000001</v>
+        <v>90507.47068</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>134554.55909</v>
@@ -1760,13 +1766,18 @@
         <v>338871.38999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>231173.39571</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>231861.1701</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>442091.095</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>7</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1005.60686</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>559.6130000000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>334.141</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1341.41914</v>
@@ -1862,13 +1883,13 @@
         <v>1139.93787</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1437.00238</v>
+        <v>1439.48868</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2867.18542</v>
+        <v>2900.65975</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2439.06566</v>
+        <v>2448.15544</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>4040.33583</v>
@@ -1877,13 +1898,18 @@
         <v>8615.014009999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>15591.26773</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16151.91641</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>37626.618</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>14.61748</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2135.44971</v>
@@ -1940,13 +1971,13 @@
         <v>2222.26419</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2091.76451</v>
+        <v>2095.88597</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>354.90076</v>
+        <v>356.10316</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>776.2325599999999</v>
+        <v>1978.55356</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>3025.18975</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1943.03065</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>4202.257</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4.24338</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>3895.59138</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2333.05</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>11848.46083</v>
@@ -2018,10 +2059,10 @@
         <v>18678.32448</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>36658.23564</v>
+        <v>36702.88397</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>83034.68936999999</v>
+        <v>83429.48572</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>69094.48935999999</v>
@@ -2033,13 +2074,18 @@
         <v>288172.71711</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>131955.84169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>131980.27651</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>333296.531</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>584.3747000000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>64844.85302</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>65137.329</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>720.74865</v>
@@ -2135,10 +2191,10 @@
         <v>6317.80066</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2110.83014</v>
+        <v>2133.4012</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1052.55502</v>
+        <v>1092.71004</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>2716.68917</v>
@@ -2150,13 +2206,18 @@
         <v>6189.74172</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11937.20438</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>12039.89527</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>-1418.444</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>13878.92885</v>
@@ -2174,13 +2235,13 @@
         <v>45220.24017</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>58240.01142</v>
+        <v>58562.44151999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>123967.46126</v>
+        <v>124445.90652</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>116787.13064</v>
+        <v>118676.79754</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>151174.71674</v>
@@ -2189,19 +2250,24 @@
         <v>400494.40884</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>262303.71734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>262101.08154</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>437745.912</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>157.16151</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>878.0283600000001</v>
+        <v>878.0283599999999</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>67.79464999999999</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>81.76622</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1346.109</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3653.510400000001</v>
@@ -2252,10 +2323,10 @@
         <v>4177.29449</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2675.50285</v>
+        <v>2933.05579</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5169.418610000001</v>
+        <v>5198.93956</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>4270.35249</v>
@@ -2264,16 +2335,21 @@
         <v>10653.04136</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9025.720350000001</v>
+        <v>9025.72035</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>15336.58679</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>17886.054</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>2.46754</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>622.625</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>9028.05414</v>
@@ -2321,37 +2402,42 @@
         <v>13651.32844</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>39089.62869000001</v>
+        <v>39089.62869</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>15831.41947</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>35426.22808</v>
+        <v>35426.22808000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>45236.65506</v>
+        <v>45268.3194</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>107525.67023</v>
+        <v>107948.24844</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>98231.34445999999</v>
+        <v>100121.01136</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>121024.01429</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>335565.56464</v>
+        <v>335565.5646400001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>177135.16075</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>177161.80856</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>326654.653</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>740.38617</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>67670.79006999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>87853.711</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>299.81663</v>
@@ -2447,10 +2543,10 @@
         <v>954.07332</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2594.810860000001</v>
+        <v>2628.02368</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1179.71569</v>
+        <v>1206.06179</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>1315.59215</v>
@@ -2462,13 +2558,18 @@
         <v>16592.6778</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2076.94597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1847.66236</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3382.76</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>9472.25518</v>
@@ -2486,13 +2587,13 @@
         <v>22773.67149</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>32698.84254</v>
+        <v>32961.68916</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>41751.03463</v>
+        <v>44214.18717</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>57962.36594999999</v>
+        <v>58530.21761</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>78600.72672000001</v>
@@ -2501,13 +2602,18 @@
         <v>236893.05793</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>302651.2707399999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>303077.40761</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>262985.704</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>9119.378190000001</v>
@@ -2525,13 +2631,13 @@
         <v>21911.36372</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>32256.75079</v>
+        <v>32519.59741</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>40823.74431999999</v>
+        <v>43286.89686</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>54759.64672</v>
+        <v>55327.49838</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>71387.93035</v>
@@ -2540,13 +2646,18 @@
         <v>205010.04082</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>252393.65634</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>252819.79321</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>217021.366</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>352.87699</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>50257.6144</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>45964.338</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>23053.55594</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>46413.54455</v>
+        <v>46413.54455000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>52008.57726000001</v>
+        <v>52008.57726</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>62424.78929</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>57536.41382000001</v>
+        <v>57536.41382</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>97991.58834999999</v>
+        <v>98317.90506999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>118648.19319</v>
+        <v>122615.40302</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>141804.87631</v>
+        <v>146559.71443</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>255228.22774</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>425667.44417</v>
+        <v>425494.9143399999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>715900.32449</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>717181.2914699999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1021664.029</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1076.50705</v>
@@ -2645,25 +2766,30 @@
         <v>3513.852</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4601.567970000001</v>
+        <v>4727.637729999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>6027.48671</v>
+        <v>6235.839840000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>9818.89249</v>
+        <v>9818.892489999998</v>
       </c>
       <c r="L48" s="47" t="n">
         <v>7539.099619999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>11339.70369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>11365.51747</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>39539.355</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>91.02499</v>
@@ -2684,7 +2810,7 @@
         <v>8.427100000000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1.23007</v>
+        <v>127.29983</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>1.00282</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>14.81893</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>698.88</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>985.4820599999999</v>
+        <v>985.48206</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>1238.63898</v>
@@ -2726,7 +2857,7 @@
         <v>4600.3379</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>6026.48389</v>
+        <v>6234.83702</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>9762.656629999999</v>
@@ -2735,13 +2866,18 @@
         <v>7417.21786</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>11324.88476</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>11350.69854</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>38840.475</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1444.28138</v>
@@ -2753,34 +2889,39 @@
         <v>15005.51156</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3680.67064</v>
+        <v>3680.670640000001</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>7365.29051</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>9886.54616</v>
+        <v>10008.19043</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8384.51838</v>
+        <v>8538.956890000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>11753.5457</v>
+        <v>11857.87785</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>8697.9169</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>26043.73266</v>
+        <v>26116.04812</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>17009.82493</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>17361.05471</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>23445.63</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>180.62422</v>
@@ -2807,19 +2948,24 @@
         <v>745.85502</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>825.1303800000002</v>
+        <v>825.1303800000001</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>1246.28627</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>417.6340099999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>417.63401</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>444.018</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>14.27142</v>
@@ -2837,7 +2983,7 @@
         <v>191.43251</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>389.50592</v>
+        <v>395.18292</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>715.8942</v>
@@ -2852,13 +2998,18 @@
         <v>1227.72719</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1315.7209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1350.87434</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>944.4690000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1249.38574</v>
@@ -2876,28 +3027,33 @@
         <v>6764.43705</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>8849.972089999999</v>
+        <v>8965.93936</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6487.35569</v>
+        <v>6641.794200000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>10619.08866</v>
+        <v>10723.42081</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>7562.3014</v>
+        <v>7562.301399999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>23569.7192</v>
+        <v>23642.03466</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>15276.47002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>15592.54636</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>22057.143</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>22685.78161</v>
@@ -2915,28 +3071,33 @@
         <v>52990.30386</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>91618.89418999999</v>
+        <v>91823.56663999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>114865.24278</v>
+        <v>118804.08386</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>136078.81732</v>
+        <v>140937.67642</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>256349.20333</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>407162.8111299999</v>
+        <v>406917.96584</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>710230.20325</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>711185.75423</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1037757.754</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>4824.63176</v>
@@ -2954,34 +3115,39 @@
         <v>13240.81086</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>20357.31013</v>
+        <v>20429.08457</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>26892.31716</v>
+        <v>27805.80981</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>31197.53629</v>
+        <v>31949.71032</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>50872.28996</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>79493.32291000002</v>
+        <v>79498.86102000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>121107.33942</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>121461.51299</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>118399.119</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>17861.14985</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>36645.46334</v>
+        <v>36645.46333999999</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>28095.69212</v>
@@ -2993,25 +3159,28 @@
         <v>39749.493</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>71261.58405999999</v>
+        <v>71394.48207000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>87972.92562000001</v>
+        <v>90998.27404999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>104881.28103</v>
+        <v>108987.9661</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>205476.91337</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>327669.4882199999</v>
+        <v>327419.1048200001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>589122.8638299999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>589724.24124</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>919358.635</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>106</v>
@@ -3047,25 +3219,28 @@
         <v>134</v>
       </c>
       <c r="H59" s="35" t="n">
+        <v>130</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>126</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>129</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>122</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>127</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>133</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>153</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>